--- a/data/trans_dic/P23_3_R-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P23_3_R-Edad-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N17"/>
+  <dimension ref="A1:T18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo</t>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>11,14%</t>
+          <t>10,58%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>10,85%</t>
+          <t>12,15%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>12,03%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>10,74%</t>
+          <t>12,31%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>11,06%</t>
+          <t>10,73%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,55%</t>
+          <t>20,45%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>11,21%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
+          <t>11,3%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>7,07%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>11,33%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
           <t>17,41%</t>
         </is>
       </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>11,1%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>11,2%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>8,99%</t>
-        </is>
-      </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>13,88%</t>
+          <t>17,61%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>10,89%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>11,72%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>9,55%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>11,81%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19,13%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>6,22; 18,38</t>
+          <t>6,01; 16,91</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>6,07; 17,46</t>
+          <t>7,61; 19,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>5,52; 16,72</t>
+          <t>6,87; 19,69</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,84; 18,27</t>
+          <t>7,19; 20,1</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,38; 17,07</t>
+          <t>5,79; 17,99</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>7,09; 17,52</t>
+          <t>13,09; 29,02</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>4,11; 11,63</t>
+          <t>6,85; 17,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>10,82; 25,82</t>
+          <t>7,07; 16,77</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>7,67; 15,23</t>
+          <t>4,04; 11,5</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>8,22; 15,34</t>
+          <t>6,59; 17,72</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6,19; 13,16</t>
+          <t>10,44; 26,6</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>9,13; 19,02</t>
+          <t>11,0; 25,48</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>7,59; 14,96</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>7,95; 16,19</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>6,52; 13,58</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>8,15; 17,48</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>9,49; 19,78</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>14,27; 25,2</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>16,98%</t>
+          <t>16,87%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,95%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>18,02%</t>
+          <t>17,99%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>14,33%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>18,48%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>17,59%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>15,51%</t>
+          <t>24,04%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
+          <t>17,39%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
           <t>15,53%</t>
         </is>
       </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>17,42%</t>
-        </is>
-      </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>17,27%</t>
+          <t>15,5%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>15,22%</t>
+          <t>13,24%</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16,85%</t>
+          <t>17,41%</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>17,97%</t>
+          <t>22,84%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>17,12%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>15,56%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>16,83%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>13,82%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>23,46%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,25; 23,23</t>
+          <t>11,65; 23,45</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,57; 25,32</t>
+          <t>9,69; 27,68</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>12,07; 26,29</t>
+          <t>12,08; 27,12</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>11,97; 27,61</t>
+          <t>8,72; 21,68</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>12,43; 23,63</t>
+          <t>12,23; 28,32</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>11,07; 21,09</t>
+          <t>16,32; 33,51</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>11,34; 20,73</t>
+          <t>12,71; 23,92</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>11,82; 24,71</t>
+          <t>11,44; 20,56</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,31; 21,76</t>
+          <t>11,28; 20,76</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,65; 20,85</t>
+          <t>8,62; 19,96</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>13,27; 22,19</t>
+          <t>11,89; 25,18</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>13,82; 23,48</t>
+          <t>16,88; 29,58</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>13,24; 21,39</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,74; 22,39</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,96; 21,75</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>10,16; 18,52</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 23,27</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>18,28; 29,37</t>
         </is>
       </c>
     </row>
@@ -936,62 +1105,92 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>28,78%</t>
+          <t>28,41%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>22,22%</t>
+          <t>22,33%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>22,24%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>24,94%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>23,07%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>22,06%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>23,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,46%</t>
+          <t>22,68%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>19,4%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>17,53%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,59%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>21,65%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>25,36%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>20,62%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>20,08%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
+          <t>17,37%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>20,82%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>19,84%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>21,17%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
           <t>22,4%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1203,92 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>22,23; 38,8</t>
+          <t>22,16; 36,49</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>17,04; 28,16</t>
+          <t>17,24; 28,69</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>17,61; 33,2</t>
+          <t>17,0; 29,84</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>17,36; 29,08</t>
+          <t>19,03; 31,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>17,52; 27,31</t>
+          <t>17,39; 28,65</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,39; 23,42</t>
+          <t>17,12; 31,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,96; 21,83</t>
+          <t>18,11; 27,98</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,72; 27,3</t>
+          <t>15,39; 24,08</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>21,05; 30,73</t>
+          <t>13,89; 21,35</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,2</t>
+          <t>13,62; 22,09</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>16,68; 24,46</t>
+          <t>16,96; 27,79</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>18,7; 26,37</t>
+          <t>12,33; 22,82</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>21,64; 30,21</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>17,39; 24,54</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>16,63; 24,36</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>17,33; 25,15</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>18,45; 26,76</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>16,49; 24,81</t>
         </is>
       </c>
     </row>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>18,01%</t>
+          <t>18,33%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>16,15%</t>
+          <t>16,32%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>18,59%</t>
+          <t>18,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>16,61%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>21,83%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>23,19%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,68%</t>
+          <t>21,48%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>23,65%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>22,67%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>23,45%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>28,12%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>26,58%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>20,7%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>19,51%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>20,89%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>24,35%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>21,07%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>19,59%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>20,93%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>22,44%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>24,07%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>22,88%</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1403,92 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>13,55; 23,64</t>
+          <t>13,81; 23,61</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,43; 21,16</t>
+          <t>12,37; 21,2</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,28; 24,82</t>
+          <t>13,56; 23,83</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 28,33</t>
+          <t>12,03; 21,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>18,56; 27,35</t>
+          <t>15,81; 28,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,66; 27,32</t>
+          <t>16,14; 27,98</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,86; 27,27</t>
+          <t>19,41; 28,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>21,28; 32,28</t>
+          <t>18,85; 27,99</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>17,5; 24,49</t>
+          <t>19,32; 27,93</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>16,64; 22,42</t>
+          <t>23,44; 33,64</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>17,39; 24,32</t>
+          <t>20,71; 32,55</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>19,99; 28,39</t>
+          <t>19,42; 29,77</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>17,53; 24,79</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>16,74; 22,76</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>17,75; 24,4</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>19,09; 26,11</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>20,29; 28,75</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 27,14</t>
         </is>
       </c>
     </row>
@@ -1216,62 +1505,92 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>14,91%</t>
+          <t>15,11%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>15,64%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>11,9%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>16,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>20,9%</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>20,74%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>21,2%</t>
+          <t>25,06%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>15,74%</t>
+          <t>20,34%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>15,58%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>18,79%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
           <t>19,28%</t>
         </is>
       </c>
-      <c r="K12" s="2" t="inlineStr">
-        <is>
-          <t>17,92%</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>18,39%</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>13,87%</t>
-        </is>
-      </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
+          <t>21,26%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>17,8%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>18,48%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>13,85%</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>17,67%</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
           <t>20,05%</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>23,06%</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1603,92 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>10,52; 20,55</t>
+          <t>10,86; 21,42</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>11,24; 20,0</t>
+          <t>11,31; 20,58</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>8,11; 16,06</t>
+          <t>8,27; 16,44</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>14,12; 27,26</t>
+          <t>11,79; 21,58</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>15,5; 27,64</t>
+          <t>14,94; 27,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>16,02; 27,2</t>
+          <t>19,2; 32,17</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,69; 20,73</t>
+          <t>15,36; 26,8</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>13,81; 24,59</t>
+          <t>15,76; 27,01</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>14,43; 21,9</t>
+          <t>11,87; 20,64</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>15,15; 22,51</t>
+          <t>13,99; 25,86</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10,86; 17,16</t>
+          <t>14,13; 24,83</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>16,16; 24,32</t>
+          <t>16,29; 27,47</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>14,74; 21,48</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>15,07; 22,44</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>11,34; 17,64</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>14,04; 21,63</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>16,22; 24,59</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>19,03; 27,22</t>
         </is>
       </c>
     </row>
@@ -1356,62 +1705,92 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>7,41%</t>
+          <t>7,07%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>6,93%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>9,26%</t>
+          <t>9,12%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>18,7%</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>13,78%</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>12,68%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>11,47%</t>
+          <t>15,44%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>8,66%</t>
+          <t>14,21%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>12,55%</t>
+          <t>11,85%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>8,77%</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>17,04%</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>8,91%</t>
+          <t>12,56%</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
+          <t>23,6%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>11,22%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>9,82%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>8,92%</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>17,8%</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
           <t>13,05%</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>20,34%</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1803,92 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 12,9</t>
+          <t>3,56; 12,52</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>3,9; 12,31</t>
+          <t>3,69; 12,1</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>5,36; 14,38</t>
+          <t>5,77; 14,66</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>7,94; 20,42</t>
+          <t>11,86; 28,02</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>8,61; 18,4</t>
+          <t>8,39; 21,22</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>7,77; 15,36</t>
+          <t>10,23; 23,06</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>5,48; 13,02</t>
+          <t>9,57; 22,25</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 20,61</t>
+          <t>8,16; 16,62</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>7,64; 14,38</t>
+          <t>5,27; 12,88</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>7,13; 12,76</t>
+          <t>11,63; 25,54</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,57; 12,03</t>
+          <t>7,39; 20,65</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>9,09; 18,88</t>
+          <t>17,04; 32,38</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>8,2; 15,64</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>7,05; 13,4</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>6,3; 11,92</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>13,41; 23,31</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>9,3; 17,88</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>15,69; 25,84</t>
         </is>
       </c>
     </row>
@@ -1496,62 +1905,92 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>16,92%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>15,02%</t>
+          <t>15,4%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>15,85%</t>
+          <t>15,89%</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>17,62%</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>18,68%</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>18,28%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>17,07%</t>
+          <t>21,78%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>18,71%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
+          <t>17,16%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>14,93%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>18,17%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
           <t>19,11%</t>
         </is>
       </c>
-      <c r="K16" s="2" t="inlineStr">
-        <is>
-          <t>17,73%</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>16,08%</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>15,38%</t>
-        </is>
-      </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
+          <t>21,34%</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>17,84%</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>16,31%</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>15,4%</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>17,9%</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
           <t>18,9%</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>21,56%</t>
         </is>
       </c>
     </row>
@@ -1564,78 +2003,2419 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,94; 20,39</t>
+          <t>14,65; 19,27</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,87; 17,34</t>
+          <t>13,24; 18,49</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>13,43; 18,4</t>
+          <t>13,64; 18,77</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 21,35</t>
+          <t>15,44; 20,49</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>16,23; 20,55</t>
+          <t>16,22; 21,34</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>15,05; 19,12</t>
+          <t>19,15; 24,97</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,3; 16,68</t>
+          <t>16,76; 21,18</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,69; 21,84</t>
+          <t>15,31; 19,06</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>16,16; 19,54</t>
+          <t>13,27; 16,82</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>14,56; 17,53</t>
+          <t>15,91; 20,62</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>13,99; 17,03</t>
+          <t>16,67; 21,69</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>17,08; 20,8</t>
+          <t>18,84; 23,98</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>16,26; 19,53</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>14,94; 17,96</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>13,96; 16,83</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>16,21; 19,72</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>17,12; 20,72</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>19,58; 23,54</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="11">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o muchos menos elogios y reconocimientos de los que desea cuando hace bien su trabajo (tasa de respuesta: 98,65%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>16-24</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>13.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>14.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>27.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>52454</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>62758</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>61392</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>57169</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>4471</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>9013</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>51594</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>58180</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>36121</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>53802</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>6452</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>6791</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>104048</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>120938</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>97513</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>110972</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>10923</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>15804</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>29766; 83782</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>39338; 102539</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>35025; 100420</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>33388; 93364</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>2414; 7500</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>5766; 12787</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>31506; 79040</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>36422; 86340</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>20628; 58779</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>31316; 84177</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>3870; 9858</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>4239; 9821</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>72565; 142987</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>82034; 167047</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>66572; 138653</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>76544; 164228</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>7469; 15574</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>11791; 20818</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>25-34</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>28.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>38.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>70.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>96194</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>86786</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>105914</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>82646</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>9164</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>11684</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>88823</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>78904</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>80206</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>66882</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>8145</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>10508</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>185017</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>165690</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>186120</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>149527</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>17308</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>22192</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>66426; 133701</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>53925; 154047</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>71093; 159636</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>50271; 125007</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>6066; 14046</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>7931; 16289</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>64914; 122193</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>58097; 104436</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>58333; 107413</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>43553; 100827</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>5564; 11783</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>7767; 13608</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>143160; 231232</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>125031; 238354</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>143308; 240505</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>109863; 200327</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>13035; 22430</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>17295; 27786</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>35-44</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>62.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>57.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>64.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>68.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>126.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>127.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>116.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>189657</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>151176</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>150790</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>169287</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>13604</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>13866</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>161567</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>138580</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>124258</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>125390</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>11469</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>9442</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>351223</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>289756</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>275048</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>294677</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>25072</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>23309</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>147958; 243629</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>116689; 194209</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>115251; 202313</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>129181; 211494</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>10255; 16897</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>10290; 18683</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>129057; 199324</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>109997; 172077</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>98414; 151291</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>97113; 157478</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>8983; 14717</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>6700; 12401</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>298668; 416976</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>241916; 341440</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>230628; 337792</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>241161; 350002</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>20651; 29958</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>18876; 28395</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>45-54</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>46.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>49.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>51.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>81.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>88.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>86.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>60.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>59.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>120.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>130.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>139.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>129.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>102.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>103.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>116991</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>103433</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>116156</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>106363</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>12661</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>12063</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>160259</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>151926</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>151474</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>184980</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>13762</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>12909</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>277251</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>255359</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>267630</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>291343</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>26423</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>24972</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>88136; 150692</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>78389; 134344</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>85804; 150804</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>77029; 139915</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>9171; 16603</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>9064; 15711</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>131540; 194062</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>126319; 187544</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>124764; 180376</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>154162; 221254</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>10723; 16851</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>10295; 15781</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>230635; 326180</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>218282; 296748</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>226945; 311929</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>247850; 338954</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>22272; 31558</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>20724; 29631</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>55-64</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>33.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>72.0</t>
+        </is>
+      </c>
+      <c r="R16" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="S16" s="2" t="inlineStr">
+        <is>
+          <t>74.0</t>
+        </is>
+      </c>
+      <c r="T16" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>71283</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>73674</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>57406</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>77600</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>8917</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>10594</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>102162</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>103894</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>78317</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>92125</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>9163</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>9958</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>173445</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>177568</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>135723</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>169725</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>18080</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>20552</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>51237; 101065</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>53275; 96962</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>39432; 78391</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>55410; 101433</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>6376; 11631</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>8117; 13603</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>77142; 134635</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>77130; 132198</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>59687; 103760</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>68610; 126811</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>6716; 11797</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>7631; 12869</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>143589; 209292</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>144799; 215532</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>111043; 172779</t>
+        </is>
+      </c>
+      <c r="R18" s="2" t="inlineStr">
+        <is>
+          <t>134817; 207713</t>
+        </is>
+      </c>
+      <c r="S18" s="2" t="inlineStr">
+        <is>
+          <t>14627; 22182</t>
+        </is>
+      </c>
+      <c r="T18" s="2" t="inlineStr">
+        <is>
+          <t>16963; 24261</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>65 Y MAS</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>11.0</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>16.0</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>23.0</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="R19" s="2" t="inlineStr">
+        <is>
+          <t>45.0</t>
+        </is>
+      </c>
+      <c r="S19" s="2" t="inlineStr">
+        <is>
+          <t>34.0</t>
+        </is>
+      </c>
+      <c r="T19" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>32552</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>31035</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>44238</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>96503</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>5493</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>6101</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>91015</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>76919</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>56279</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>105421</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>7395</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>13998</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>123567</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>107954</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>100517</t>
+        </is>
+      </c>
+      <c r="R20" s="2" t="inlineStr">
+        <is>
+          <t>201924</t>
+        </is>
+      </c>
+      <c r="S20" s="2" t="inlineStr">
+        <is>
+          <t>12888</t>
+        </is>
+      </c>
+      <c r="T20" s="2" t="inlineStr">
+        <is>
+          <t>20099</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>16397; 57633</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>16616; 54417</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>28010; 71123</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>61200; 144572</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>3347; 8460</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>4043; 9114</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>61290; 142518</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>52992; 107880</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>33795; 82683</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>71963; 158022</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>4353; 12160</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>10103; 19207</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>90313; 172210</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>77494; 147300</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>71007; 134403</t>
+        </is>
+      </c>
+      <c r="R21" s="2" t="inlineStr">
+        <is>
+          <t>152098; 264426</t>
+        </is>
+      </c>
+      <c r="S21" s="2" t="inlineStr">
+        <is>
+          <t>9186; 17657</t>
+        </is>
+      </c>
+      <c r="T21" s="2" t="inlineStr">
+        <is>
+          <t>15508; 25536</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>199.0</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>206.0</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>193.0</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>174.0</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>195.0</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>254.0</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>286.0</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>268.0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>238.0</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>214.0</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>239.0</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>448.0</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>485.0</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>474.0</t>
+        </is>
+      </c>
+      <c r="R22" s="2" t="inlineStr">
+        <is>
+          <t>431.0</t>
+        </is>
+      </c>
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>388.0</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>434.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>559131</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>508862</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>535897</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>589568</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>54310</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>63322</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>655420</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>608403</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>526655</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>628600</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>56386</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>63606</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>1214551</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>1117265</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>1062551</t>
+        </is>
+      </c>
+      <c r="R23" s="2" t="inlineStr">
+        <is>
+          <t>1218168</t>
+        </is>
+      </c>
+      <c r="S23" s="2" t="inlineStr">
+        <is>
+          <t>110696</t>
+        </is>
+      </c>
+      <c r="T23" s="2" t="inlineStr">
+        <is>
+          <t>126928</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>484037; 636827</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>437726; 611127</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>459971; 632676</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>516750; 685808</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>47178; 62057</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>55659; 72605</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>587169; 741970</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>542871; 675987</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>468201; 593330</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>550319; 713308</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>49184; 63993</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>56168; 71484</t>
+        </is>
+      </c>
+      <c r="O24" s="2" t="inlineStr">
+        <is>
+          <t>1106690; 1329230</t>
+        </is>
+      </c>
+      <c r="P24" s="2" t="inlineStr">
+        <is>
+          <t>1023716; 1230728</t>
+        </is>
+      </c>
+      <c r="Q24" s="2" t="inlineStr">
+        <is>
+          <t>962961; 1161247</t>
+        </is>
+      </c>
+      <c r="R24" s="2" t="inlineStr">
+        <is>
+          <t>1103119; 1341959</t>
+        </is>
+      </c>
+      <c r="S24" s="2" t="inlineStr">
+        <is>
+          <t>100281; 121360</t>
+        </is>
+      </c>
+      <c r="T24" s="2" t="inlineStr">
+        <is>
+          <t>115275; 138619</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
-    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
